--- a/MSF/Prosjektplan.xlsx
+++ b/MSF/Prosjektplan.xlsx
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
-  <si>
-    <t>Utvikling av prosjekt X</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
   <si>
     <t>Beskrive brukerprofil</t>
   </si>
@@ -157,13 +154,34 @@
   </si>
   <si>
     <t>Edvard Munck</t>
+  </si>
+  <si>
+    <t>Utvikling av prosjekt, gruppe 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raskt gjort da risikoene var klare. </t>
+  </si>
+  <si>
+    <t>Kort beskrivelse av problemstillingen.</t>
+  </si>
+  <si>
+    <t>Første iterasjon er på litt over 3 dager.</t>
+  </si>
+  <si>
+    <t>Hvordan skal vi gjennomføre på tid med ønsket resultat?</t>
+  </si>
+  <si>
+    <t>Omar Ilyas</t>
+  </si>
+  <si>
+    <t>Joakim Engen Olsen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -188,6 +206,18 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -224,8 +254,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -234,9 +276,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -269,8 +308,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -573,7 +625,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -584,257 +636,506 @@
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27.75" customHeight="1">
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="24">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="15">
+        <v>42458</v>
+      </c>
+      <c r="D5" s="15">
+        <v>42459</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="15">
+        <v>42459</v>
+      </c>
+      <c r="D6" s="15">
+        <v>42459</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1">
-      <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="24">
-      <c r="A5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="16">
-        <v>42458</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="15">
         <v>42459</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="D7" s="15">
         <v>42459</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="15">
         <v>42459</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="D8" s="15">
         <v>42459</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="15">
+        <v>42459</v>
+      </c>
+      <c r="D9" s="15">
+        <v>42460</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="15">
+        <v>42460</v>
+      </c>
+      <c r="D12" s="15">
+        <v>42460</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="15">
+        <v>42460</v>
+      </c>
+      <c r="D13" s="15">
+        <v>42460</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="15">
+        <v>42460</v>
+      </c>
+      <c r="D14" s="15">
+        <v>42461</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="15">
         <v>42459</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="11" t="s">
+      <c r="D15" s="15">
+        <v>42460</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="15">
+        <v>42461</v>
+      </c>
+      <c r="D16" s="15">
+        <v>42461</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="10"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="13" t="s">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="15">
+        <v>42461</v>
+      </c>
+      <c r="D19" s="15">
+        <v>42462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="15">
+        <v>42461</v>
+      </c>
+      <c r="D20" s="15">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="11" t="s">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="15">
+        <v>42462</v>
+      </c>
+      <c r="D21" s="15">
+        <v>42467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="11" t="s">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="15">
+        <v>42462</v>
+      </c>
+      <c r="D22" s="15">
+        <v>42467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="11" t="s">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="15">
+        <v>42463</v>
+      </c>
+      <c r="D23" s="15">
+        <v>42467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="15">
+        <v>42464</v>
+      </c>
+      <c r="D24" s="15">
+        <v>42467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="10"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="11"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="11" t="s">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="15">
+        <v>42465</v>
+      </c>
+      <c r="D27" s="15">
+        <v>42465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="15">
+        <v>42465</v>
+      </c>
+      <c r="D28" s="15">
+        <v>42465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="15">
+        <v>42466</v>
+      </c>
+      <c r="D29" s="15">
+        <v>42467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24">
+      <c r="A30" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="15">
+        <v>42466</v>
+      </c>
+      <c r="D30" s="15">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="15">
+        <v>42467</v>
+      </c>
+      <c r="D33" s="15">
+        <v>42467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="15">
+        <v>42467</v>
+      </c>
+      <c r="D34" s="15">
+        <v>42467</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="15">
+        <v>42467</v>
+      </c>
+      <c r="D35" s="15">
+        <v>42467</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="24">
-      <c r="A30" s="13" t="s">
+      <c r="B36" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="15">
+        <v>42467</v>
+      </c>
+      <c r="D36" s="15">
+        <v>42467</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="11"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="11" t="s">
-        <v>13</v>
+      <c r="C37" s="15">
+        <v>42467</v>
+      </c>
+      <c r="D37" s="15">
+        <v>42467</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="13" thickBot="1">
-      <c r="A38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="A38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -867,38 +1168,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13" thickBot="1">
+      <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -930,38 +1231,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13" thickBot="1">
+      <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -993,38 +1294,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="24">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13" thickBot="1">
+      <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1058,38 +1359,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="24">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13" thickBot="1">
+      <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1120,38 +1421,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13" thickBot="1">
+      <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1184,38 +1485,38 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1"/>
     <row r="2" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13" thickBot="1">
+      <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/MSF/Prosjektplan.xlsx
+++ b/MSF/Prosjektplan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joakim\Documents\Skole_Westerdals\Iterativt Webprosjekt\PJ2100_Prosjekt\PJ2100\MSF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="140" yWindow="120" windowWidth="27840" windowHeight="15960" tabRatio="834"/>
+    <workbookView xWindow="135" yWindow="120" windowWidth="27840" windowHeight="15960" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="Eksempel_prosjektplan_MSF" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <sheet name="Utviklingsrolle" sheetId="6" r:id="rId6"/>
     <sheet name="Utrullingsrolle" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
   <si>
     <t>Beskrive brukerprofil</t>
   </si>
@@ -159,28 +164,58 @@
     <t>Utvikling av prosjekt, gruppe 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Raskt gjort da risikoene var klare. </t>
-  </si>
-  <si>
-    <t>Kort beskrivelse av problemstillingen.</t>
-  </si>
-  <si>
     <t>Første iterasjon er på litt over 3 dager.</t>
   </si>
   <si>
-    <t>Hvordan skal vi gjennomføre på tid med ønsket resultat?</t>
-  </si>
-  <si>
     <t>Omar Ilyas</t>
   </si>
   <si>
-    <t>Joakim Engen Olsen</t>
+    <t>Enighet om konsept byr på utfordringer</t>
+  </si>
+  <si>
+    <t>Samme som over</t>
+  </si>
+  <si>
+    <t>Ikke startet</t>
+  </si>
+  <si>
+    <t>Ikke ferdig</t>
+  </si>
+  <si>
+    <t>Ferdig(for nå)</t>
+  </si>
+  <si>
+    <t>Usikkert hvem som trenger hva foreløpig</t>
+  </si>
+  <si>
+    <t>Ikke startet, testcase for alle forhold</t>
+  </si>
+  <si>
+    <t>Ikke ferdig, komponenter testes underveis.</t>
+  </si>
+  <si>
+    <t>Ikke ferdig. Her regnes all dokumentasjon.</t>
+  </si>
+  <si>
+    <t>Vurdert som ikke-relevant for dette prosjektet</t>
+  </si>
+  <si>
+    <t>Ikke startet, vurderes om relevant fortløpende.</t>
+  </si>
+  <si>
+    <t>ekstra tid lagt inn i tilfelle problemer oppstår</t>
+  </si>
+  <si>
+    <t>Ikke startet, nødvendighet vurderes fortløpende</t>
+  </si>
+  <si>
+    <t>Ikke startet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -269,7 +304,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -309,20 +344,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Benyttet hyperkobling" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Benyttet hyperkobling" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Benyttet hyperkobling" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Benyttet hyperkobling" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Benyttet hyperkobling" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Benyttet hyperkobling" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,6 +366,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -625,26 +664,26 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
@@ -667,13 +706,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="24">
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
@@ -690,16 +729,17 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <f>E5-F5</f>
+        <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
@@ -719,13 +759,14 @@
         <v>0.5</v>
       </c>
       <c r="G6">
+        <f t="shared" ref="G6:G37" si="0">E6-F6</f>
         <v>0.5</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
@@ -741,8 +782,18 @@
       <c r="E7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
@@ -762,13 +813,14 @@
         <v>2.5</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
@@ -782,33 +834,34 @@
         <v>42460</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="15">
         <v>42460</v>
@@ -819,8 +872,18 @@
       <c r="E12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -836,8 +899,18 @@
       <c r="E13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="F13">
+        <v>4.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>30</v>
       </c>
@@ -851,10 +924,20 @@
         <v>42461</v>
       </c>
       <c r="E14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>31</v>
       </c>
@@ -868,10 +951,20 @@
         <v>42460</v>
       </c>
       <c r="E15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>5.5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
@@ -885,24 +978,34 @@
         <v>42461</v>
       </c>
       <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>1.5</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="15">
         <v>42461</v>
@@ -910,8 +1013,21 @@
       <c r="D19" s="15">
         <v>42462</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>33</v>
       </c>
@@ -924,8 +1040,21 @@
       <c r="D20" s="15">
         <v>42461</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
@@ -938,8 +1067,21 @@
       <c r="D21" s="15">
         <v>42467</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>7</v>
       </c>
@@ -952,8 +1094,21 @@
       <c r="D22" s="15">
         <v>42467</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
@@ -966,8 +1121,21 @@
       <c r="D23" s="15">
         <v>42467</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>9</v>
       </c>
@@ -980,22 +1148,35 @@
       <c r="D24" s="15">
         <v>42467</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C27" s="15">
         <v>42465</v>
@@ -1003,8 +1184,21 @@
       <c r="D27" s="15">
         <v>42465</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>37</v>
       </c>
@@ -1017,22 +1211,45 @@
       <c r="D28" s="15">
         <v>42465</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
       <c r="C29" s="15">
         <v>42466</v>
       </c>
       <c r="D29" s="15">
         <v>42467</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="24">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>38</v>
       </c>
@@ -1045,22 +1262,35 @@
       <c r="D30" s="15">
         <v>42466</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C33" s="15">
         <v>42467</v>
@@ -1068,13 +1298,26 @@
       <c r="D33" s="15">
         <v>42467</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" s="17">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" s="15">
         <v>42467</v>
@@ -1082,8 +1325,21 @@
       <c r="D34" s="15">
         <v>42467</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" s="17">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>15</v>
       </c>
@@ -1096,13 +1352,26 @@
       <c r="D35" s="15">
         <v>42467</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="17">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C36" s="15">
         <v>42467</v>
@@ -1110,8 +1379,21 @@
       <c r="D36" s="15">
         <v>42467</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="17">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>12</v>
       </c>
@@ -1124,17 +1406,39 @@
       <c r="D37" s="15">
         <v>42467</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="13" thickBot="1">
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" s="17">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="E38" s="4">
+        <f>SUM(E5:E37)</f>
+        <v>85</v>
+      </c>
+      <c r="F38" s="4">
+        <f>SUM(F5:F37)</f>
+        <v>33.1</v>
+      </c>
+      <c r="G38" s="4">
+        <f>SUM(F5:F37)</f>
+        <v>33.1</v>
+      </c>
       <c r="H38" s="4"/>
     </row>
   </sheetData>
@@ -1158,16 +1462,16 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="27.75" customHeight="1">
+    <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
@@ -1190,7 +1494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
+    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -1221,16 +1525,16 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="27.75" customHeight="1">
+    <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
@@ -1253,7 +1557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
+    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -1284,16 +1588,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="24">
+    <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
@@ -1316,7 +1620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
+    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -1347,18 +1651,18 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="24">
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
@@ -1381,7 +1685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
+    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -1412,15 +1716,15 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="25.5" customHeight="1">
+    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
@@ -1443,7 +1747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
+    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -1474,17 +1778,17 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1"/>
-    <row r="2" spans="1:7" ht="26.25" customHeight="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
@@ -1507,7 +1811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
+    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>

--- a/MSF/Prosjektplan.xlsx
+++ b/MSF/Prosjektplan.xlsx
@@ -1,24 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joakim\Documents\Skole_Westerdals\Iterativt Webprosjekt\PJ2100_Prosjekt\PJ2100\MSF\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="135" yWindow="120" windowWidth="27840" windowHeight="15960" tabRatio="834"/>
+    <workbookView xWindow="140" yWindow="120" windowWidth="27840" windowHeight="15960" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="Eksempel_prosjektplan_MSF" sheetId="1" r:id="rId1"/>
-    <sheet name="Produktrolle" sheetId="2" r:id="rId2"/>
-    <sheet name="Prosessrolle" sheetId="3" r:id="rId3"/>
-    <sheet name="Testrolle" sheetId="4" r:id="rId4"/>
-    <sheet name="Brukeropplevelserolle" sheetId="5" r:id="rId5"/>
-    <sheet name="Utviklingsrolle" sheetId="6" r:id="rId6"/>
-    <sheet name="Utrullingsrolle" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>Beskrive brukerprofil</t>
   </si>
@@ -132,12 +121,6 @@
   </si>
   <si>
     <t>Lage testcase</t>
-  </si>
-  <si>
-    <t>Aktivitetet</t>
-  </si>
-  <si>
-    <t>SUM</t>
   </si>
   <si>
     <t>Brukeraksept (user acceptance)</t>
@@ -215,7 +198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -347,18 +330,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Benyttet hyperkobling" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Benyttet hyperkobling" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Benyttet hyperkobling" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Benyttet hyperkobling" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Benyttet hyperkobling" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Benyttet hyperkobling" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperkobling" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperkobling" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperkobling" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperkobling" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperkobling" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperkobling" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -667,23 +650,23 @@
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27.75" customHeight="1">
       <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
@@ -706,18 +689,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="24">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="15">
         <v>42458</v>
@@ -736,15 +719,15 @@
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="15">
         <v>42459</v>
@@ -763,15 +746,15 @@
         <v>0.5</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="15">
         <v>42459</v>
@@ -790,15 +773,15 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="15">
         <v>42459</v>
@@ -817,15 +800,15 @@
         <v>-0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="15">
         <v>42459</v>
@@ -844,24 +827,24 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="15">
         <v>42460</v>
@@ -880,15 +863,15 @@
         <v>-1</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="15">
         <v>42460</v>
@@ -907,15 +890,15 @@
         <v>-1.5</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="15">
         <v>42460</v>
@@ -934,15 +917,15 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="15">
         <v>42459</v>
@@ -961,15 +944,15 @@
         <v>0.5</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="15">
         <v>42461</v>
@@ -988,24 +971,24 @@
         <v>1.5</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="15">
         <v>42461</v>
@@ -1024,15 +1007,15 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="15">
         <v>42461</v>
@@ -1051,15 +1034,15 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="15">
         <v>42462</v>
@@ -1078,15 +1061,15 @@
         <v>5.5</v>
       </c>
       <c r="H21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="15">
         <v>42462</v>
@@ -1105,15 +1088,15 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="15">
         <v>42463</v>
@@ -1132,15 +1115,15 @@
         <v>1.9</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="15">
         <v>42464</v>
@@ -1159,24 +1142,24 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="15">
         <v>42465</v>
@@ -1195,15 +1178,15 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="15">
         <v>42465</v>
@@ -1222,12 +1205,12 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="15">
         <v>42466</v>
@@ -1246,15 +1229,15 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="24">
       <c r="A30" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="15">
         <v>42466</v>
@@ -1273,24 +1256,24 @@
         <v>0.5</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="10"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="15">
         <v>42467</v>
@@ -1309,15 +1292,15 @@
         <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="15">
         <v>42467</v>
@@ -1336,15 +1319,15 @@
         <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="15">
         <v>42467</v>
@@ -1363,15 +1346,15 @@
         <v>0.5</v>
       </c>
       <c r="H35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" s="15">
         <v>42467</v>
@@ -1390,15 +1373,15 @@
         <v>0.5</v>
       </c>
       <c r="H36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="15">
         <v>42467</v>
@@ -1417,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="13" thickBot="1">
       <c r="A38" s="4" t="s">
         <v>17</v>
       </c>
@@ -1452,384 +1435,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/MSF/Prosjektplan.xlsx
+++ b/MSF/Prosjektplan.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="140" yWindow="120" windowWidth="27840" windowHeight="15960" tabRatio="834"/>
   </bookViews>
   <sheets>
-    <sheet name="Eksempel_prosjektplan_MSF" sheetId="1" r:id="rId1"/>
+    <sheet name="Prosjektplan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>Beskrive brukerprofil</t>
   </si>
@@ -153,12 +153,6 @@
     <t>Omar Ilyas</t>
   </si>
   <si>
-    <t>Enighet om konsept byr på utfordringer</t>
-  </si>
-  <si>
-    <t>Samme som over</t>
-  </si>
-  <si>
     <t>Ikke startet</t>
   </si>
   <si>
@@ -168,31 +162,49 @@
     <t>Ferdig(for nå)</t>
   </si>
   <si>
-    <t>Usikkert hvem som trenger hva foreløpig</t>
-  </si>
-  <si>
-    <t>Ikke startet, testcase for alle forhold</t>
-  </si>
-  <si>
-    <t>Ikke ferdig, komponenter testes underveis.</t>
-  </si>
-  <si>
     <t>Ikke ferdig. Her regnes all dokumentasjon.</t>
   </si>
   <si>
     <t>Vurdert som ikke-relevant for dette prosjektet</t>
   </si>
   <si>
-    <t>Ikke startet, vurderes om relevant fortløpende.</t>
-  </si>
-  <si>
-    <t>ekstra tid lagt inn i tilfelle problemer oppstår</t>
-  </si>
-  <si>
-    <t>Ikke startet, nødvendighet vurderes fortløpende</t>
-  </si>
-  <si>
     <t>Ikke startet.</t>
+  </si>
+  <si>
+    <t>Fullført</t>
+  </si>
+  <si>
+    <t>Ikomponenter testes fortløpende.</t>
+  </si>
+  <si>
+    <t>Fullført, men valg av mer avansert teknologi lot tiden gå over estimert.</t>
+  </si>
+  <si>
+    <t>Dette punktet vil gå hånd i hånd med punktet under.</t>
+  </si>
+  <si>
+    <t>Brukers use cases som utgangspunkt for testing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle har det de trenger tilgjengelig. </t>
+  </si>
+  <si>
+    <t>Ferdigstiller PHP/HTML/MySql</t>
+  </si>
+  <si>
+    <t>Ferdigstiller HTML/CSS</t>
+  </si>
+  <si>
+    <t>Ekstra tid lagt inn i tilfelle problemer oppstår.</t>
+  </si>
+  <si>
+    <t>Vurderes som ikke-relevant for dette prosjektet da det skal fremføres.</t>
+  </si>
+  <si>
+    <t>Brukerdokumentasjon legges under resultat av testing.</t>
+  </si>
+  <si>
+    <t>Fullført.</t>
   </si>
 </sst>
 </file>
@@ -646,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -658,7 +670,7 @@
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46" customWidth="1"/>
+    <col min="8" max="8" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
@@ -712,14 +724,14 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f>E5-F5</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -773,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -800,7 +812,7 @@
         <v>-0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -820,14 +832,14 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -863,7 +875,7 @@
         <v>-1</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -890,7 +902,7 @@
         <v>-1.5</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -910,14 +922,14 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -944,7 +956,7 @@
         <v>0.5</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -971,7 +983,7 @@
         <v>1.5</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1000,14 +1012,14 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1027,14 +1039,14 @@
         <v>3</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1054,14 +1066,14 @@
         <v>6</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>-6</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1081,14 +1093,14 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1142,7 +1154,7 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1171,14 +1183,14 @@
         <v>6</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1198,14 +1210,14 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1229,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="24">
@@ -1246,17 +1258,17 @@
         <v>42466</v>
       </c>
       <c r="E30">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1282,17 +1294,17 @@
         <v>42467</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F33" s="17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1312,14 +1324,14 @@
         <v>4</v>
       </c>
       <c r="F34" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1336,17 +1348,17 @@
         <v>42467</v>
       </c>
       <c r="E35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F35" s="17">
         <v>0</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1366,14 +1378,14 @@
         <v>0.5</v>
       </c>
       <c r="F36" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1393,14 +1405,14 @@
         <v>3</v>
       </c>
       <c r="F37" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="13" thickBot="1">
@@ -1412,15 +1424,15 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4">
         <f>SUM(E5:E37)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F38" s="4">
         <f>SUM(F5:F37)</f>
-        <v>33.1</v>
+        <v>92.1</v>
       </c>
       <c r="G38" s="4">
         <f>SUM(F5:F37)</f>
-        <v>33.1</v>
+        <v>92.1</v>
       </c>
       <c r="H38" s="4"/>
     </row>

--- a/MSF/Prosjektplan.xlsx
+++ b/MSF/Prosjektplan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>Beskrive brukerprofil</t>
   </si>
@@ -153,12 +153,6 @@
     <t>Omar Ilyas</t>
   </si>
   <si>
-    <t>Ikke startet</t>
-  </si>
-  <si>
-    <t>Ikke ferdig</t>
-  </si>
-  <si>
     <t>Ferdig(for nå)</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>Vurdert som ikke-relevant for dette prosjektet</t>
   </si>
   <si>
-    <t>Ikke startet.</t>
-  </si>
-  <si>
     <t>Fullført</t>
   </si>
   <si>
@@ -205,6 +196,12 @@
   </si>
   <si>
     <t>Fullført.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing fullført. </t>
+  </si>
+  <si>
+    <t>Sluttrapport ferdigstilles i plenum.</t>
   </si>
 </sst>
 </file>
@@ -659,7 +656,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -731,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -785,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -812,7 +809,7 @@
         <v>-0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -839,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -875,7 +872,7 @@
         <v>-1</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -902,7 +899,7 @@
         <v>-1.5</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -929,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -955,9 +952,6 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H15" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
@@ -982,9 +976,6 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="H16" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="10"/>
@@ -1019,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1046,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1073,7 +1064,7 @@
         <v>-6</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1100,7 +1091,7 @@
         <v>-6</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1127,7 +1118,7 @@
         <v>1.9</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1154,7 +1145,7 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1190,7 +1181,7 @@
         <v>-4</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1217,7 +1208,7 @@
         <v>-2</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1241,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="24">
@@ -1268,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1304,7 +1295,7 @@
         <v>-1</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1331,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1358,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1385,7 +1376,7 @@
         <v>-0.5</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1402,17 +1393,17 @@
         <v>42467</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F37" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="13" thickBot="1">
@@ -1424,15 +1415,15 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4">
         <f>SUM(E5:E37)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F38" s="4">
         <f>SUM(F5:F37)</f>
-        <v>92.1</v>
+        <v>93.1</v>
       </c>
       <c r="G38" s="4">
         <f>SUM(F5:F37)</f>
-        <v>92.1</v>
+        <v>93.1</v>
       </c>
       <c r="H38" s="4"/>
     </row>
